--- a/mipo_template.xlsx
+++ b/mipo_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nadavkrashin/Documents/IDF/השלמה טכנולוגית 014/MiPo/mipo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15AFD6B-42B3-EA4F-A063-A68BCED93D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D711EC1F-52C9-244B-9442-26F785FD6462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -58,7 +58,7 @@
     <t>456-789-0123</t>
   </si>
   <si>
-    <t>Segel (true if yes)</t>
+    <t>segel</t>
   </si>
 </sst>
 </file>
@@ -460,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -471,10 +471,9 @@
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,11 +483,8 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -499,7 +495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -510,7 +506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -519,6 +515,14 @@
       </c>
       <c r="C4" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/mipo_template.xlsx
+++ b/mipo_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nadavkrashin/Documents/IDF/השלמה טכנולוגית 014/MiPo/mipo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D711EC1F-52C9-244B-9442-26F785FD6462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECE82A6-06A1-574B-92E0-921B4766102F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -31,34 +31,25 @@
     <t>Phone</t>
   </si>
   <si>
-    <t>Alice</t>
-  </si>
-  <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>Charlie</t>
-  </si>
-  <si>
-    <t>Engineering</t>
-  </si>
-  <si>
-    <t>Marketing</t>
-  </si>
-  <si>
-    <t>Sales</t>
-  </si>
-  <si>
-    <t>123-456-7890</t>
-  </si>
-  <si>
-    <t>987-654-3210</t>
-  </si>
-  <si>
-    <t>456-789-0123</t>
-  </si>
-  <si>
-    <t>segel</t>
+    <t>נדב קרשין</t>
+  </si>
+  <si>
+    <t>אלון גנות</t>
+  </si>
+  <si>
+    <t>עילי רז</t>
+  </si>
+  <si>
+    <t>סגל</t>
+  </si>
+  <si>
+    <t>0543424857</t>
+  </si>
+  <si>
+    <t>0527365916</t>
+  </si>
+  <si>
+    <t>0508362748</t>
   </si>
 </sst>
 </file>
@@ -82,12 +73,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -117,10 +114,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,12 +469,12 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -485,45 +491,46 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
+      <c r="B2" s="2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
